--- a/docs/timesheet_kevin_dossche.xlsx
+++ b/docs/timesheet_kevin_dossche.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>Aanmaken repo's + inschrijven herexamen + _includes</t>
+  </si>
+  <si>
+    <t>Importeren en aanpassen oude webpagina's</t>
+  </si>
+  <si>
+    <t>3u</t>
   </si>
 </sst>
 </file>
@@ -202,6 +208,34 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>42924.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>42925.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/docs/timesheet_kevin_dossche.xlsx
+++ b/docs/timesheet_kevin_dossche.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>3u</t>
+  </si>
+  <si>
+    <t>filterfunctie + algemene aanpassingen</t>
+  </si>
+  <si>
+    <t>2,5u</t>
   </si>
 </sst>
 </file>
@@ -236,6 +242,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>42926.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/docs/timesheet_kevin_dossche.xlsx
+++ b/docs/timesheet_kevin_dossche.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Datum</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Taak</t>
   </si>
   <si>
-    <t>Tijdsduur</t>
+    <t>Tijd (in uur)</t>
   </si>
   <si>
     <t>Kevin Dossche</t>
@@ -31,21 +31,12 @@
     <t>Oorspronkelijke opdracht opruimen + profielpagina per id</t>
   </si>
   <si>
-    <t>1u</t>
-  </si>
-  <si>
     <t>zoeken ruby + jekyll installatie bestanden (voor windows)</t>
   </si>
   <si>
-    <t>1,5u</t>
-  </si>
-  <si>
     <t>installatie ruby en jekyll + aanmaken/begin nieuw project</t>
   </si>
   <si>
-    <t>2u</t>
-  </si>
-  <si>
     <t>Sass</t>
   </si>
   <si>
@@ -55,13 +46,28 @@
     <t>Importeren en aanpassen oude webpagina's</t>
   </si>
   <si>
-    <t>3u</t>
-  </si>
-  <si>
     <t>filterfunctie + algemene aanpassingen</t>
   </si>
   <si>
-    <t>2,5u</t>
+    <t>Opzetten werkomgeving computer 2 + pagina links</t>
+  </si>
+  <si>
+    <t>Jekyll toepassing links</t>
+  </si>
+  <si>
+    <t>Jekll - handlebars/sass compatibileit</t>
+  </si>
+  <si>
+    <t>Sass/css</t>
+  </si>
+  <si>
+    <t>Jekyll + Sass + bugfixes + testen</t>
+  </si>
+  <si>
+    <t>Overzetten van computer 2 naar computer 1 + github project updaten + style</t>
+  </si>
+  <si>
+    <t>Totaal</t>
   </si>
 </sst>
 </file>
@@ -127,7 +133,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="48.0"/>
+    <col customWidth="1" min="3" max="3" width="64.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -154,8 +160,8 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
+      <c r="D2" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -166,10 +172,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.5</v>
       </c>
     </row>
     <row r="4">
@@ -180,10 +186,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -194,10 +200,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.5</v>
       </c>
     </row>
     <row r="6">
@@ -208,10 +214,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -222,10 +228,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -236,10 +242,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -250,10 +256,103 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>42929.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>42932.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>42933.0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>42935.0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D13" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>42937.0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>42942.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18">
+        <f>SUM(D2:D15)</f>
+        <v>33.5</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/timesheet_kevin_dossche.xlsx
+++ b/docs/timesheet_kevin_dossche.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Datum</t>
   </si>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>Overzetten van computer 2 naar computer 1 + github project updaten + style</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Herschikking pagina's + homepage + style</t>
+  </si>
+  <si>
+    <t>Homepage + style + profiel pagina's</t>
+  </si>
+  <si>
+    <t>Signup + messages</t>
   </si>
   <si>
     <t>Totaal</t>
@@ -346,13 +358,83 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>42943.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>42944.0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
     <row r="18">
-      <c r="D18">
-        <f>SUM(D2:D15)</f>
-        <v>33.5</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>18</v>
+      <c r="A18" s="2">
+        <v>42945.0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>42946.0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>42947.0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23">
+        <f>SUM(D2:D20)</f>
+        <v>47.5</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/docs/timesheet_kevin_dossche.xlsx
+++ b/docs/timesheet_kevin_dossche.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>Datum</t>
   </si>
@@ -77,6 +77,21 @@
   </si>
   <si>
     <t>Signup + messages</t>
+  </si>
+  <si>
+    <t>Profiel pagina's</t>
+  </si>
+  <si>
+    <t>Login + bugfixes</t>
+  </si>
+  <si>
+    <t>Messages</t>
+  </si>
+  <si>
+    <t>Profiel pagina's + bugfixes</t>
+  </si>
+  <si>
+    <t>Afwerking profiel pagina's</t>
   </si>
   <si>
     <t>Totaal</t>
@@ -229,7 +244,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>2.0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="7">
@@ -428,13 +443,111 @@
         <v>3.5</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>42948.0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <v>42949.0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
     <row r="23">
-      <c r="D23">
-        <f>SUM(D2:D20)</f>
-        <v>47.5</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>22</v>
+      <c r="A23" s="2">
+        <v>42950.0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>42951.0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>42952.0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>42954.0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>42955.0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29">
+        <f>SUM(D2:D27)</f>
+        <v>63</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/timesheet_kevin_dossche.xlsx
+++ b/docs/timesheet_kevin_dossche.xlsx
@@ -91,7 +91,7 @@
     <t>Profiel pagina's + bugfixes</t>
   </si>
   <si>
-    <t>Afwerking profiel pagina's</t>
+    <t>Afwerking + testen + bugfixes</t>
   </si>
   <si>
     <t>Totaal</t>
@@ -538,13 +538,13 @@
         <v>26</v>
       </c>
       <c r="D27" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="29">
       <c r="D29">
         <f>SUM(D2:D27)</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>27</v>

--- a/docs/timesheet_kevin_dossche.xlsx
+++ b/docs/timesheet_kevin_dossche.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>Datum</t>
   </si>
@@ -88,10 +88,13 @@
     <t>Messages</t>
   </si>
   <si>
-    <t>Profiel pagina's + bugfixes</t>
+    <t xml:space="preserve">Profiel pagina's </t>
   </si>
   <si>
     <t>Afwerking + testen + bugfixes</t>
+  </si>
+  <si>
+    <t>Stijl aanpassing + bugfixes</t>
   </si>
   <si>
     <t>Totaal</t>
@@ -507,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D25" s="1">
         <v>2.0</v>
@@ -541,13 +544,27 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="D29">
-        <f>SUM(D2:D27)</f>
-        <v>65</v>
-      </c>
-      <c r="E29" s="1" t="s">
+    <row r="28">
+      <c r="A28" s="2">
+        <v>42956.0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30">
+        <f>SUM(D2:D28)</f>
+        <v>67</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/timesheet_kevin_dossche.xlsx
+++ b/docs/timesheet_kevin_dossche.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
   <si>
     <t>Datum</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Stijl aanpassing + bugfixes</t>
+  </si>
+  <si>
+    <t>SendBird chat integratie</t>
   </si>
   <si>
     <t>Totaal</t>
@@ -104,8 +107,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d-m-yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd-mm-yyyy"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -134,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -142,6 +146,9 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -485,7 +492,7 @@
         <v>23</v>
       </c>
       <c r="D23" s="1">
-        <v>3.0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="24">
@@ -558,13 +565,30 @@
         <v>2.0</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="3">
+        <v>42963.0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
     <row r="30">
-      <c r="D30">
-        <f>SUM(D2:D28)</f>
-        <v>67</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>28</v>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="D31">
+        <f>SUM(D2:D29)</f>
+        <v>70</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
